--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1235,7 +1235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>98</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>121</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>128</v>
       </c>
@@ -3002,12 +3002,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK21">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-safety-stop-compliance.xlsx
+++ b/docs/StructureDefinition-safety-stop-compliance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
